--- a/sport/output/8_chn.xlsx
+++ b/sport/output/8_chn.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="154">
   <si>
     <t>Game ID</t>
   </si>
@@ -187,88 +187,94 @@
     <t>Competition Category Name</t>
   </si>
   <si>
-    <t>28535-C-9</t>
-  </si>
-  <si>
-    <t>29350-A-1</t>
-  </si>
-  <si>
-    <t>29350-A-2</t>
-  </si>
-  <si>
-    <t>29350-A-3</t>
-  </si>
-  <si>
-    <t>29350-A-4</t>
-  </si>
-  <si>
-    <t>29350-A-5</t>
-  </si>
-  <si>
-    <t>29350-A-6</t>
-  </si>
-  <si>
-    <t>29350-B-1</t>
-  </si>
-  <si>
-    <t>29350-B-2</t>
-  </si>
-  <si>
-    <t>29350-B-3</t>
-  </si>
-  <si>
-    <t>29350-B-4</t>
-  </si>
-  <si>
-    <t>29350-B-5</t>
-  </si>
-  <si>
-    <t>29350-B-6</t>
-  </si>
-  <si>
-    <t>29352-14-14</t>
-  </si>
-  <si>
-    <t>29352-15-15</t>
-  </si>
-  <si>
-    <t>29353-13-13</t>
-  </si>
-  <si>
-    <t>29354-17-17</t>
-  </si>
-  <si>
-    <t>29354-18-18</t>
-  </si>
-  <si>
-    <t>29355-16-16</t>
-  </si>
-  <si>
-    <t>29356-19-19</t>
-  </si>
-  <si>
-    <t>29357-20-20</t>
+    <t>29930-A-1</t>
+  </si>
+  <si>
+    <t>29930-A-2</t>
+  </si>
+  <si>
+    <t>29930-A-3</t>
+  </si>
+  <si>
+    <t>29930-A-4</t>
+  </si>
+  <si>
+    <t>29930-A-5</t>
+  </si>
+  <si>
+    <t>29930-A-6</t>
+  </si>
+  <si>
+    <t>29930-A-7</t>
+  </si>
+  <si>
+    <t>29930-A-8</t>
+  </si>
+  <si>
+    <t>29930-A-9</t>
+  </si>
+  <si>
+    <t>29930-A-10</t>
+  </si>
+  <si>
+    <t>29930-A-11</t>
+  </si>
+  <si>
+    <t>29930-A-12</t>
+  </si>
+  <si>
+    <t>29930-A-13</t>
+  </si>
+  <si>
+    <t>29930-A-14</t>
+  </si>
+  <si>
+    <t>29930-A-15</t>
+  </si>
+  <si>
+    <t>29775-B-9</t>
+  </si>
+  <si>
+    <t>29775-B-11</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
   <si>
     <t>14</t>
@@ -277,199 +283,106 @@
     <t>15</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>INIT</t>
   </si>
   <si>
     <t>CHN</t>
   </si>
   <si>
-    <t>NZL</t>
-  </si>
-  <si>
-    <t>KOR</t>
-  </si>
-  <si>
-    <t>INA</t>
+    <t>CZE</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>MLI</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>People 's Republic of China</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>China</t>
   </si>
   <si>
     <t>JPN</t>
   </si>
   <si>
-    <t>AUS</t>
-  </si>
-  <si>
-    <t>PHI</t>
-  </si>
-  <si>
-    <t>LBN</t>
-  </si>
-  <si>
-    <t>People 's Republic of China</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Republic of Korea</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
+    <t>TPE</t>
   </si>
   <si>
     <t>Japan</t>
   </si>
   <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Korea</t>
-  </si>
-  <si>
-    <t>Shenzhen</t>
-  </si>
-  <si>
-    <t>Shenzhen Sports Center</t>
-  </si>
-  <si>
-    <t>2025-02-20T19:30:00</t>
-  </si>
-  <si>
-    <t>2025-07-13T19:30:00</t>
-  </si>
-  <si>
-    <t>2025-07-14T13:30:00</t>
-  </si>
-  <si>
-    <t>2025-07-15T19:30:00</t>
-  </si>
-  <si>
-    <t>2025-07-15T13:30:00</t>
-  </si>
-  <si>
-    <t>2025-07-16T19:30:00</t>
-  </si>
-  <si>
-    <t>2025-07-16T16:30:00</t>
-  </si>
-  <si>
-    <t>2025-07-13T13:30:00</t>
-  </si>
-  <si>
-    <t>2025-07-13T16:30:00</t>
-  </si>
-  <si>
-    <t>2025-07-14T19:30:00</t>
-  </si>
-  <si>
-    <t>2025-07-14T16:30:00</t>
-  </si>
-  <si>
-    <t>2025-07-15T16:30:00</t>
-  </si>
-  <si>
-    <t>2025-07-16T13:30:00</t>
-  </si>
-  <si>
-    <t>2025-07-18T00:00:00</t>
-  </si>
-  <si>
-    <t>2025-07-18T13:30:00</t>
-  </si>
-  <si>
-    <t>2025-07-19T00:00:00</t>
-  </si>
-  <si>
-    <t>2025-07-19T13:30:00</t>
-  </si>
-  <si>
-    <t>2025-07-20T16:30:00</t>
-  </si>
-  <si>
-    <t>2025-07-20T19:30:00</t>
-  </si>
-  <si>
-    <t>2025-02-20T11:30:00</t>
-  </si>
-  <si>
-    <t>2025-07-13T11:30:00</t>
-  </si>
-  <si>
-    <t>2025-07-14T05:30:00</t>
-  </si>
-  <si>
-    <t>2025-07-15T11:30:00</t>
-  </si>
-  <si>
-    <t>2025-07-15T05:30:00</t>
-  </si>
-  <si>
-    <t>2025-07-16T11:30:00</t>
-  </si>
-  <si>
-    <t>2025-07-16T08:30:00</t>
-  </si>
-  <si>
-    <t>2025-07-13T05:30:00</t>
-  </si>
-  <si>
-    <t>2025-07-13T08:30:00</t>
-  </si>
-  <si>
-    <t>2025-07-14T11:30:00</t>
-  </si>
-  <si>
-    <t>2025-07-14T08:30:00</t>
-  </si>
-  <si>
-    <t>2025-07-15T08:30:00</t>
-  </si>
-  <si>
-    <t>2025-07-16T05:30:00</t>
-  </si>
-  <si>
-    <t>2025-07-17T16:00:00</t>
-  </si>
-  <si>
-    <t>2025-07-18T05:30:00</t>
-  </si>
-  <si>
-    <t>2025-07-18T16:00:00</t>
-  </si>
-  <si>
-    <t>2025-07-19T05:30:00</t>
-  </si>
-  <si>
-    <t>2025-07-20T08:30:00</t>
-  </si>
-  <si>
-    <t>2025-07-20T11:30:00</t>
+    <t>Chinese Taipei</t>
+  </si>
+  <si>
+    <t>Wuhan</t>
+  </si>
+  <si>
+    <t>Wuhan Sports Centre</t>
+  </si>
+  <si>
+    <t>2026-03-11T00:00:00</t>
+  </si>
+  <si>
+    <t>2026-03-12T00:00:00</t>
+  </si>
+  <si>
+    <t>2026-03-14T00:00:00</t>
+  </si>
+  <si>
+    <t>2026-03-15T00:00:00</t>
+  </si>
+  <si>
+    <t>2026-03-17T00:00:00</t>
+  </si>
+  <si>
+    <t>2026-07-03T00:00:00</t>
+  </si>
+  <si>
+    <t>2026-07-06T00:00:00</t>
+  </si>
+  <si>
+    <t>2026-03-10T16:00:00</t>
+  </si>
+  <si>
+    <t>2026-03-11T16:00:00</t>
+  </si>
+  <si>
+    <t>2026-03-13T16:00:00</t>
+  </si>
+  <si>
+    <t>2026-03-14T16:00:00</t>
+  </si>
+  <si>
+    <t>2026-03-16T16:00:00</t>
+  </si>
+  <si>
+    <t>2026-07-02T16:00:00</t>
+  </si>
+  <si>
+    <t>2026-07-05T16:00:00</t>
   </si>
   <si>
     <t>Asia/Shanghai</t>
@@ -478,40 +391,10 @@
     <t>FLS</t>
   </si>
   <si>
-    <t>43415</t>
-  </si>
-  <si>
-    <t>44803</t>
-  </si>
-  <si>
-    <t>44804</t>
-  </si>
-  <si>
-    <t>44805</t>
-  </si>
-  <si>
-    <t>44806</t>
-  </si>
-  <si>
-    <t>44807</t>
-  </si>
-  <si>
-    <t>44808</t>
-  </si>
-  <si>
-    <t>44809</t>
-  </si>
-  <si>
-    <t>44810</t>
-  </si>
-  <si>
-    <t>44811</t>
-  </si>
-  <si>
-    <t>44812</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>45823</t>
+  </si>
+  <si>
+    <t>45539</t>
   </si>
   <si>
     <t>A</t>
@@ -520,88 +403,40 @@
     <t>B</t>
   </si>
   <si>
+    <t>GP</t>
+  </si>
+  <si>
     <t>GR1</t>
   </si>
   <si>
-    <t>GP</t>
-  </si>
-  <si>
-    <t>QSF</t>
-  </si>
-  <si>
-    <t>CL0708</t>
-  </si>
-  <si>
-    <t>SF</t>
-  </si>
-  <si>
-    <t>CL0506</t>
-  </si>
-  <si>
-    <t>3PG</t>
-  </si>
-  <si>
-    <t>F</t>
+    <t>Group Phase</t>
   </si>
   <si>
     <t>1st Round</t>
   </si>
   <si>
-    <t>Group Phase</t>
-  </si>
-  <si>
-    <t>Qualification Semi-Finals</t>
-  </si>
-  <si>
-    <t>Classification 7-8</t>
-  </si>
-  <si>
-    <t>Semi-Finals</t>
-  </si>
-  <si>
-    <t>Classification 5-6</t>
-  </si>
-  <si>
-    <t>3rd Place Game</t>
-  </si>
-  <si>
-    <t>Final</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
-    <t>NG</t>
-  </si>
-  <si>
-    <t>PROGR</t>
-  </si>
-  <si>
-    <t>ASMMQ</t>
-  </si>
-  <si>
-    <t>WAC-DIV-A</t>
-  </si>
-  <si>
-    <t>FIBA Asia Cup 2025 Qualifiers</t>
-  </si>
-  <si>
-    <t>FIBA Women's Asia Cup Division A</t>
-  </si>
-  <si>
-    <t>2024-02-19</t>
-  </si>
-  <si>
-    <t>2025-07-13</t>
-  </si>
-  <si>
-    <t>2025-02-25</t>
-  </si>
-  <si>
-    <t>2025-07-20</t>
-  </si>
-  <si>
-    <t>In Progress</t>
+    <t>WMW-Q4</t>
+  </si>
+  <si>
+    <t>WCQ-AS</t>
+  </si>
+  <si>
+    <t>FIBA Women's Basketball World Cup 2026 Qualifying Tournament China</t>
+  </si>
+  <si>
+    <t>FIBA Basketball World Cup 2027 Asian Qualifiers</t>
+  </si>
+  <si>
+    <t>2025-11-24T00:00:00</t>
+  </si>
+  <si>
+    <t>2026-03-17T23:59:59.9999999</t>
+  </si>
+  <si>
+    <t>2027-03-02T23:59:59.9999999</t>
   </si>
   <si>
     <t>Initial</t>
@@ -610,13 +445,19 @@
     <t>Senior</t>
   </si>
   <si>
+    <t>Women</t>
+  </si>
+  <si>
     <t>Men</t>
   </si>
   <si>
-    <t>Women</t>
-  </si>
-  <si>
-    <t>FIBA Asia</t>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
   <si>
     <t>AS</t>
@@ -625,16 +466,16 @@
     <t>National Teams</t>
   </si>
   <si>
-    <t>CCQ</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>Continental Cup Qualifiers</t>
-  </si>
-  <si>
-    <t>Continental Cup</t>
+    <t>QT</t>
+  </si>
+  <si>
+    <t>WCQ</t>
+  </si>
+  <si>
+    <t>Qualifying Tournament</t>
+  </si>
+  <si>
+    <t>World Cup Qualifiers</t>
   </si>
 </sst>
 </file>
@@ -992,7 +833,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE22"/>
+  <dimension ref="A1:BE18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1173,46 +1014,46 @@
     </row>
     <row r="2" spans="1:57">
       <c r="A2">
-        <v>120692</v>
+        <v>128186</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E2">
-        <v>280975</v>
+        <v>284026</v>
       </c>
       <c r="F2">
         <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" t="s">
         <v>102</v>
       </c>
-      <c r="I2" t="s">
-        <v>110</v>
-      </c>
       <c r="J2">
-        <v>280980</v>
+        <v>284027</v>
       </c>
       <c r="K2">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="L2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="M2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="N2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -1224,34 +1065,34 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="W2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="X2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Y2">
-        <v>60760</v>
+        <v>57208</v>
       </c>
       <c r="Z2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AA2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="AB2" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="AC2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="AE2">
         <v>8</v>
@@ -1269,114 +1110,114 @@
         <v>0</v>
       </c>
       <c r="AJ2" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="AK2" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="AL2" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="AM2">
-        <v>28535</v>
+        <v>29930</v>
       </c>
       <c r="AN2" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="AO2" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="AP2">
         <v>1</v>
       </c>
       <c r="AQ2" t="s">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="AR2" t="s">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="AS2">
-        <v>208585</v>
+        <v>208973</v>
       </c>
       <c r="AT2" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="AU2" t="s">
-        <v>189</v>
+        <v>136</v>
       </c>
       <c r="AV2" t="s">
-        <v>191</v>
+        <v>109</v>
       </c>
       <c r="AW2" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
       <c r="AX2" t="s">
-        <v>195</v>
+        <v>141</v>
       </c>
       <c r="AY2" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
       <c r="AZ2" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="BA2" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="BB2" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="BC2" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="BD2" t="s">
-        <v>203</v>
+        <v>150</v>
       </c>
       <c r="BE2" t="s">
-        <v>205</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:57">
       <c r="A3">
-        <v>125115</v>
+        <v>128187</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E3">
-        <v>283036</v>
+        <v>284031</v>
       </c>
       <c r="F3">
-        <v>39</v>
+        <v>886</v>
       </c>
       <c r="G3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I3" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="J3">
-        <v>283039</v>
+        <v>284028</v>
       </c>
       <c r="K3">
-        <v>78</v>
+        <v>9716</v>
       </c>
       <c r="L3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="N3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -1388,34 +1229,34 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="W3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="X3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Y3">
-        <v>60760</v>
+        <v>57208</v>
       </c>
       <c r="Z3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AA3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="AB3" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="AC3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="AE3">
         <v>8</v>
@@ -1433,153 +1274,153 @@
         <v>0</v>
       </c>
       <c r="AJ3" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="AK3" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="AL3" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="AM3">
-        <v>29350</v>
+        <v>29930</v>
       </c>
       <c r="AN3" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="AO3" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="AP3">
         <v>1</v>
       </c>
       <c r="AQ3" t="s">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="AR3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AS3">
-        <v>208896</v>
+        <v>208973</v>
       </c>
       <c r="AT3" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="AU3" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="AV3" t="s">
-        <v>192</v>
+        <v>109</v>
       </c>
       <c r="AW3" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="AX3" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="AY3" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
       <c r="AZ3" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="BA3" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="BB3" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="BC3" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="BD3" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="BE3" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:57">
       <c r="A4">
-        <v>125113</v>
+        <v>128188</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E4">
-        <v>283037</v>
+        <v>284029</v>
       </c>
       <c r="F4">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J4">
-        <v>283038</v>
+        <v>284030</v>
       </c>
       <c r="K4">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="L4" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" t="s">
+        <v>100</v>
+      </c>
+      <c r="N4" t="s">
+        <v>100</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="V4" t="s">
+        <v>107</v>
+      </c>
+      <c r="W4" t="s">
         <v>96</v>
       </c>
-      <c r="M4" t="s">
-        <v>104</v>
-      </c>
-      <c r="N4" t="s">
-        <v>111</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="b">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="V4" t="s">
-        <v>112</v>
-      </c>
-      <c r="W4" t="s">
-        <v>102</v>
-      </c>
       <c r="X4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Y4">
-        <v>60760</v>
+        <v>57208</v>
       </c>
       <c r="Z4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AA4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB4" t="s">
         <v>116</v>
       </c>
-      <c r="AB4" t="s">
-        <v>135</v>
-      </c>
       <c r="AC4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="AE4">
         <v>8</v>
@@ -1597,153 +1438,153 @@
         <v>0</v>
       </c>
       <c r="AJ4" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="AK4" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="AL4" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="AM4">
-        <v>29350</v>
+        <v>29930</v>
       </c>
       <c r="AN4" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="AO4" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="AP4">
         <v>1</v>
       </c>
       <c r="AQ4" t="s">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="AR4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AS4">
-        <v>208896</v>
+        <v>208973</v>
       </c>
       <c r="AT4" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="AU4" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="AV4" t="s">
-        <v>192</v>
+        <v>109</v>
       </c>
       <c r="AW4" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="AX4" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="AY4" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
       <c r="AZ4" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="BA4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="BB4" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="BC4" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="BD4" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="BE4" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:57">
       <c r="A5">
-        <v>125114</v>
+        <v>128189</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5">
+        <v>284027</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5" t="s">
         <v>93</v>
       </c>
-      <c r="E5">
-        <v>283038</v>
-      </c>
-      <c r="F5">
-        <v>89</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5">
+        <v>284031</v>
+      </c>
+      <c r="K5">
+        <v>886</v>
+      </c>
+      <c r="L5" t="s">
+        <v>91</v>
+      </c>
+      <c r="M5" t="s">
+        <v>97</v>
+      </c>
+      <c r="N5" t="s">
+        <v>97</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="V5" t="s">
+        <v>107</v>
+      </c>
+      <c r="W5" t="s">
         <v>96</v>
       </c>
-      <c r="H5" t="s">
-        <v>104</v>
-      </c>
-      <c r="I5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J5">
-        <v>283036</v>
-      </c>
-      <c r="K5">
-        <v>39</v>
-      </c>
-      <c r="L5" t="s">
-        <v>94</v>
-      </c>
-      <c r="M5" t="s">
-        <v>102</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="X5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y5">
+        <v>57208</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA5" t="s">
         <v>110</v>
       </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="V5" t="s">
-        <v>112</v>
-      </c>
-      <c r="W5" t="s">
-        <v>102</v>
-      </c>
-      <c r="X5" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y5">
-        <v>60760</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>117</v>
       </c>
-      <c r="AB5" t="s">
-        <v>136</v>
-      </c>
       <c r="AC5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="AE5">
         <v>8</v>
@@ -1761,114 +1602,114 @@
         <v>0</v>
       </c>
       <c r="AJ5" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="AK5" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="AL5" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="AM5">
-        <v>29350</v>
+        <v>29930</v>
       </c>
       <c r="AN5" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="AO5" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="AP5">
         <v>1</v>
       </c>
       <c r="AQ5" t="s">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="AR5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AS5">
-        <v>208896</v>
+        <v>208973</v>
       </c>
       <c r="AT5" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="AU5" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="AV5" t="s">
-        <v>192</v>
+        <v>109</v>
       </c>
       <c r="AW5" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="AX5" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="AY5" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
       <c r="AZ5" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="BA5" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="BB5" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="BC5" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="BD5" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="BE5" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:57">
       <c r="A6">
-        <v>125116</v>
+        <v>128190</v>
       </c>
       <c r="B6" t="s">
         <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E6">
-        <v>283039</v>
+        <v>284030</v>
       </c>
       <c r="F6">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J6">
-        <v>283037</v>
+        <v>284026</v>
       </c>
       <c r="K6">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="L6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="M6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="N6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1880,34 +1721,34 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="W6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="X6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Y6">
-        <v>60760</v>
+        <v>57208</v>
       </c>
       <c r="Z6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AA6" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="AB6" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="AC6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="AE6">
         <v>8</v>
@@ -1925,153 +1766,153 @@
         <v>0</v>
       </c>
       <c r="AJ6" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="AK6" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="AL6" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="AM6">
-        <v>29350</v>
+        <v>29930</v>
       </c>
       <c r="AN6" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="AO6" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="AP6">
         <v>1</v>
       </c>
       <c r="AQ6" t="s">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="AR6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AS6">
-        <v>208896</v>
+        <v>208973</v>
       </c>
       <c r="AT6" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="AU6" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="AV6" t="s">
-        <v>192</v>
+        <v>109</v>
       </c>
       <c r="AW6" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="AX6" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="AY6" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
       <c r="AZ6" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="BA6" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="BB6" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="BC6" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="BD6" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="BE6" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:57">
       <c r="A7">
-        <v>125112</v>
+        <v>128191</v>
       </c>
       <c r="B7" t="s">
         <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E7">
-        <v>283036</v>
+        <v>284028</v>
       </c>
       <c r="F7">
-        <v>39</v>
+        <v>9716</v>
       </c>
       <c r="G7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7">
+        <v>284029</v>
+      </c>
+      <c r="K7">
+        <v>27</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="V7" t="s">
+        <v>107</v>
+      </c>
+      <c r="W7" t="s">
+        <v>96</v>
+      </c>
+      <c r="X7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y7">
+        <v>57208</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA7" t="s">
         <v>110</v>
       </c>
-      <c r="J7">
-        <v>283037</v>
-      </c>
-      <c r="K7">
-        <v>113</v>
-      </c>
-      <c r="L7" t="s">
-        <v>95</v>
-      </c>
-      <c r="M7" t="s">
-        <v>103</v>
-      </c>
-      <c r="N7" t="s">
-        <v>103</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="V7" t="s">
-        <v>112</v>
-      </c>
-      <c r="W7" t="s">
-        <v>102</v>
-      </c>
-      <c r="X7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y7">
-        <v>60760</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>119</v>
-      </c>
       <c r="AB7" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="AC7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="AE7">
         <v>8</v>
@@ -2089,153 +1930,153 @@
         <v>0</v>
       </c>
       <c r="AJ7" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="AK7" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="AL7" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="AM7">
-        <v>29350</v>
+        <v>29930</v>
       </c>
       <c r="AN7" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="AO7" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="AP7">
         <v>1</v>
       </c>
       <c r="AQ7" t="s">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="AR7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AS7">
-        <v>208896</v>
+        <v>208973</v>
       </c>
       <c r="AT7" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="AU7" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="AV7" t="s">
-        <v>192</v>
+        <v>109</v>
       </c>
       <c r="AW7" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="AX7" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="AY7" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
       <c r="AZ7" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="BA7" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="BB7" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="BC7" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="BD7" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="BE7" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:57">
       <c r="A8">
-        <v>125117</v>
+        <v>128192</v>
       </c>
       <c r="B8" t="s">
         <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8">
+        <v>284030</v>
+      </c>
+      <c r="F8">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8">
+        <v>284027</v>
+      </c>
+      <c r="K8">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
         <v>93</v>
       </c>
-      <c r="E8">
-        <v>283038</v>
-      </c>
-      <c r="F8">
-        <v>89</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="M8" t="s">
+        <v>99</v>
+      </c>
+      <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="V8" t="s">
+        <v>107</v>
+      </c>
+      <c r="W8" t="s">
         <v>96</v>
       </c>
-      <c r="H8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="X8" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y8">
+        <v>57208</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA8" t="s">
         <v>111</v>
       </c>
-      <c r="J8">
-        <v>283039</v>
-      </c>
-      <c r="K8">
-        <v>78</v>
-      </c>
-      <c r="L8" t="s">
-        <v>97</v>
-      </c>
-      <c r="M8" t="s">
-        <v>105</v>
-      </c>
-      <c r="N8" t="s">
-        <v>105</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="b">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-      <c r="V8" t="s">
-        <v>112</v>
-      </c>
-      <c r="W8" t="s">
-        <v>102</v>
-      </c>
-      <c r="X8" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y8">
-        <v>60760</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>120</v>
-      </c>
       <c r="AB8" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="AC8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="AE8">
         <v>8</v>
@@ -2253,114 +2094,114 @@
         <v>0</v>
       </c>
       <c r="AJ8" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="AK8" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="AL8" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="AM8">
-        <v>29350</v>
+        <v>29930</v>
       </c>
       <c r="AN8" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="AO8" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="AP8">
         <v>1</v>
       </c>
       <c r="AQ8" t="s">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="AR8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AS8">
-        <v>208896</v>
+        <v>208973</v>
       </c>
       <c r="AT8" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="AU8" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="AV8" t="s">
-        <v>192</v>
+        <v>109</v>
       </c>
       <c r="AW8" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="AX8" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="AY8" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
       <c r="AZ8" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="BA8" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="BB8" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="BC8" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="BD8" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="BE8" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:57">
       <c r="A9">
-        <v>125121</v>
+        <v>128193</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E9">
-        <v>283040</v>
+        <v>284029</v>
       </c>
       <c r="F9">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" t="s">
         <v>98</v>
       </c>
-      <c r="H9" t="s">
-        <v>106</v>
-      </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="J9">
-        <v>283043</v>
+        <v>284031</v>
       </c>
       <c r="K9">
-        <v>93</v>
+        <v>886</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="M9" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="N9" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -2372,34 +2213,34 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="W9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="X9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Y9">
-        <v>60760</v>
+        <v>57208</v>
       </c>
       <c r="Z9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AA9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="AB9" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="AC9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="AE9">
         <v>8</v>
@@ -2417,153 +2258,153 @@
         <v>0</v>
       </c>
       <c r="AJ9" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="AK9" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="AL9" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="AM9">
-        <v>29350</v>
+        <v>29930</v>
       </c>
       <c r="AN9" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="AO9" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="AP9">
         <v>1</v>
       </c>
       <c r="AQ9" t="s">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="AR9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AS9">
-        <v>208896</v>
+        <v>208973</v>
       </c>
       <c r="AT9" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="AU9" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="AV9" t="s">
-        <v>192</v>
+        <v>109</v>
       </c>
       <c r="AW9" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="AX9" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="AY9" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
       <c r="AZ9" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="BA9" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="BB9" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="BC9" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="BD9" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="BE9" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:57">
       <c r="A10">
-        <v>125119</v>
+        <v>128194</v>
       </c>
       <c r="B10" t="s">
         <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E10">
-        <v>283041</v>
+        <v>284026</v>
       </c>
       <c r="F10">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10">
+        <v>284028</v>
+      </c>
+      <c r="K10">
+        <v>9716</v>
+      </c>
+      <c r="L10" t="s">
+        <v>95</v>
+      </c>
+      <c r="M10" t="s">
+        <v>101</v>
+      </c>
+      <c r="N10" t="s">
+        <v>101</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="V10" t="s">
         <v>107</v>
       </c>
-      <c r="I10" t="s">
-        <v>107</v>
-      </c>
-      <c r="J10">
-        <v>283042</v>
-      </c>
-      <c r="K10">
-        <v>122</v>
-      </c>
-      <c r="L10" t="s">
-        <v>100</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="W10" t="s">
+        <v>96</v>
+      </c>
+      <c r="X10" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y10">
+        <v>57208</v>
+      </c>
+      <c r="Z10" t="s">
         <v>108</v>
       </c>
-      <c r="N10" t="s">
-        <v>108</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="b">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
-      <c r="V10" t="s">
-        <v>112</v>
-      </c>
-      <c r="W10" t="s">
-        <v>102</v>
-      </c>
-      <c r="X10" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y10">
-        <v>60760</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>113</v>
-      </c>
       <c r="AA10" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="AB10" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="AC10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="AE10">
         <v>8</v>
@@ -2581,153 +2422,153 @@
         <v>0</v>
       </c>
       <c r="AJ10" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="AK10" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="AL10" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="AM10">
-        <v>29350</v>
+        <v>29930</v>
       </c>
       <c r="AN10" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="AO10" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="AP10">
         <v>1</v>
       </c>
       <c r="AQ10" t="s">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="AR10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AS10">
-        <v>208896</v>
+        <v>208973</v>
       </c>
       <c r="AT10" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="AU10" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="AV10" t="s">
-        <v>192</v>
+        <v>109</v>
       </c>
       <c r="AW10" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="AX10" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="AY10" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
       <c r="AZ10" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="BA10" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="BB10" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="BC10" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="BD10" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="BE10" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:57">
       <c r="A11">
-        <v>125120</v>
+        <v>128195</v>
       </c>
       <c r="B11" t="s">
         <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11">
+        <v>284027</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11" t="s">
         <v>93</v>
       </c>
-      <c r="E11">
-        <v>283042</v>
-      </c>
-      <c r="F11">
-        <v>122</v>
-      </c>
-      <c r="G11" t="s">
-        <v>100</v>
-      </c>
       <c r="H11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11">
+        <v>284029</v>
+      </c>
+      <c r="K11">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
+        <v>92</v>
+      </c>
+      <c r="M11" t="s">
+        <v>98</v>
+      </c>
+      <c r="N11" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="V11" t="s">
+        <v>107</v>
+      </c>
+      <c r="W11" t="s">
+        <v>96</v>
+      </c>
+      <c r="X11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y11">
+        <v>57208</v>
+      </c>
+      <c r="Z11" t="s">
         <v>108</v>
       </c>
-      <c r="I11" t="s">
-        <v>108</v>
-      </c>
-      <c r="J11">
-        <v>283040</v>
-      </c>
-      <c r="K11">
-        <v>85</v>
-      </c>
-      <c r="L11" t="s">
-        <v>98</v>
-      </c>
-      <c r="M11" t="s">
-        <v>106</v>
-      </c>
-      <c r="N11" t="s">
-        <v>106</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="V11" t="s">
+      <c r="AA11" t="s">
         <v>112</v>
       </c>
-      <c r="W11" t="s">
-        <v>102</v>
-      </c>
-      <c r="X11" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y11">
-        <v>60760</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="s">
         <v>123</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>152</v>
       </c>
       <c r="AE11">
         <v>8</v>
@@ -2745,153 +2586,153 @@
         <v>0</v>
       </c>
       <c r="AJ11" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="AK11" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="AL11" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="AM11">
-        <v>29350</v>
+        <v>29930</v>
       </c>
       <c r="AN11" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="AO11" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="AP11">
         <v>1</v>
       </c>
       <c r="AQ11" t="s">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="AR11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AS11">
-        <v>208896</v>
+        <v>208973</v>
       </c>
       <c r="AT11" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="AU11" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="AV11" t="s">
-        <v>192</v>
+        <v>109</v>
       </c>
       <c r="AW11" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="AX11" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="AY11" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
       <c r="AZ11" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="BA11" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="BB11" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="BC11" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="BD11" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="BE11" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:57">
       <c r="A12">
-        <v>125122</v>
+        <v>128196</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E12">
-        <v>283043</v>
+        <v>284028</v>
       </c>
       <c r="F12">
-        <v>93</v>
+        <v>9716</v>
       </c>
       <c r="G12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" t="s">
         <v>101</v>
       </c>
-      <c r="H12" t="s">
-        <v>109</v>
-      </c>
       <c r="I12" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="J12">
-        <v>283041</v>
+        <v>284030</v>
       </c>
       <c r="K12">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L12" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="M12" t="s">
+        <v>100</v>
+      </c>
+      <c r="N12" t="s">
+        <v>100</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="b">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="V12" t="s">
         <v>107</v>
       </c>
-      <c r="N12" t="s">
-        <v>107</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="b">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
+        <v>96</v>
+      </c>
+      <c r="X12" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y12">
+        <v>57208</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA12" t="s">
         <v>112</v>
       </c>
-      <c r="W12" t="s">
-        <v>102</v>
-      </c>
-      <c r="X12" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y12">
-        <v>60760</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>124</v>
-      </c>
       <c r="AB12" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="AC12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="AE12">
         <v>8</v>
@@ -2909,153 +2750,153 @@
         <v>0</v>
       </c>
       <c r="AJ12" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="AK12" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="AL12" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="AM12">
-        <v>29350</v>
+        <v>29930</v>
       </c>
       <c r="AN12" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="AO12" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="AP12">
         <v>1</v>
       </c>
       <c r="AQ12" t="s">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="AR12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AS12">
-        <v>208896</v>
+        <v>208973</v>
       </c>
       <c r="AT12" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="AU12" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="AV12" t="s">
-        <v>192</v>
+        <v>109</v>
       </c>
       <c r="AW12" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="AX12" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="AY12" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
       <c r="AZ12" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="BA12" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="BB12" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="BC12" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="BD12" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="BE12" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:57">
       <c r="A13">
-        <v>125118</v>
+        <v>128197</v>
       </c>
       <c r="B13" t="s">
         <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E13">
-        <v>283040</v>
+        <v>284031</v>
       </c>
       <c r="F13">
-        <v>85</v>
+        <v>886</v>
       </c>
       <c r="G13" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="I13" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="J13">
-        <v>283041</v>
+        <v>284026</v>
       </c>
       <c r="K13">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="L13" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="M13" t="s">
+        <v>96</v>
+      </c>
+      <c r="N13" t="s">
+        <v>102</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="V13" t="s">
         <v>107</v>
       </c>
-      <c r="N13" t="s">
-        <v>107</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="b">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
+        <v>96</v>
+      </c>
+      <c r="X13" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y13">
+        <v>57208</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA13" t="s">
         <v>112</v>
       </c>
-      <c r="W13" t="s">
-        <v>102</v>
-      </c>
-      <c r="X13" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y13">
-        <v>60760</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>125</v>
-      </c>
       <c r="AB13" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="AC13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="AE13">
         <v>8</v>
@@ -3073,153 +2914,153 @@
         <v>0</v>
       </c>
       <c r="AJ13" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="AK13" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="AL13" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="AM13">
-        <v>29350</v>
+        <v>29930</v>
       </c>
       <c r="AN13" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="AO13" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="AP13">
         <v>1</v>
       </c>
       <c r="AQ13" t="s">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="AR13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AS13">
-        <v>208896</v>
+        <v>208973</v>
       </c>
       <c r="AT13" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="AU13" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="AV13" t="s">
-        <v>192</v>
+        <v>109</v>
       </c>
       <c r="AW13" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="AX13" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="AY13" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
       <c r="AZ13" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="BA13" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="BB13" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="BC13" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="BD13" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="BE13" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:57">
       <c r="A14">
-        <v>125123</v>
+        <v>128198</v>
       </c>
       <c r="B14" t="s">
         <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14">
+        <v>284028</v>
+      </c>
+      <c r="F14">
+        <v>9716</v>
+      </c>
+      <c r="G14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14">
+        <v>284027</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="L14" t="s">
         <v>93</v>
       </c>
-      <c r="E14">
-        <v>283042</v>
-      </c>
-      <c r="F14">
-        <v>122</v>
-      </c>
-      <c r="G14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="M14" t="s">
+        <v>99</v>
+      </c>
+      <c r="N14" t="s">
+        <v>99</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="b">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="V14" t="s">
+        <v>107</v>
+      </c>
+      <c r="W14" t="s">
+        <v>96</v>
+      </c>
+      <c r="X14" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y14">
+        <v>57208</v>
+      </c>
+      <c r="Z14" t="s">
         <v>108</v>
       </c>
-      <c r="I14" t="s">
-        <v>108</v>
-      </c>
-      <c r="J14">
-        <v>283043</v>
-      </c>
-      <c r="K14">
-        <v>93</v>
-      </c>
-      <c r="L14" t="s">
-        <v>101</v>
-      </c>
-      <c r="M14" t="s">
-        <v>109</v>
-      </c>
-      <c r="N14" t="s">
-        <v>109</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="b">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-      <c r="V14" t="s">
-        <v>112</v>
-      </c>
-      <c r="W14" t="s">
-        <v>102</v>
-      </c>
-      <c r="X14" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y14">
-        <v>60760</v>
-      </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>113</v>
       </c>
-      <c r="AA14" t="s">
-        <v>126</v>
-      </c>
       <c r="AB14" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="AC14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="AE14">
         <v>8</v>
@@ -3237,84 +3078,114 @@
         <v>0</v>
       </c>
       <c r="AJ14" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="AK14" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="AL14" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="AM14">
-        <v>29350</v>
+        <v>29930</v>
       </c>
       <c r="AN14" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="AO14" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="AP14">
         <v>1</v>
       </c>
       <c r="AQ14" t="s">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="AR14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AS14">
-        <v>208896</v>
+        <v>208973</v>
       </c>
       <c r="AT14" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="AU14" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="AV14" t="s">
-        <v>192</v>
+        <v>109</v>
       </c>
       <c r="AW14" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="AX14" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="AY14" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
       <c r="AZ14" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="BA14" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="BB14" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="BC14" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="BD14" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="BE14" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:57">
       <c r="A15">
-        <v>126778</v>
+        <v>128199</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+      <c r="E15">
+        <v>284026</v>
+      </c>
+      <c r="F15">
+        <v>39</v>
+      </c>
+      <c r="G15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" t="s">
+        <v>102</v>
+      </c>
+      <c r="J15">
+        <v>284029</v>
+      </c>
+      <c r="K15">
+        <v>27</v>
+      </c>
+      <c r="L15" t="s">
+        <v>92</v>
+      </c>
+      <c r="M15" t="s">
+        <v>98</v>
+      </c>
+      <c r="N15" t="s">
+        <v>98</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -3329,31 +3200,31 @@
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="W15" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="X15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Y15">
-        <v>60760</v>
+        <v>57208</v>
       </c>
       <c r="Z15" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA15" t="s">
         <v>113</v>
       </c>
-      <c r="AA15" t="s">
-        <v>127</v>
-      </c>
       <c r="AB15" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="AC15" t="b">
         <v>0</v>
       </c>
       <c r="AD15" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="AE15">
         <v>8</v>
@@ -3371,84 +3242,114 @@
         <v>0</v>
       </c>
       <c r="AJ15" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="AK15" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="AL15" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="AM15">
-        <v>29352</v>
+        <v>29930</v>
       </c>
       <c r="AN15" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="AO15" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="AP15">
         <v>1</v>
       </c>
       <c r="AQ15" t="s">
-        <v>185</v>
+        <v>133</v>
       </c>
       <c r="AR15" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AS15">
-        <v>208896</v>
+        <v>208973</v>
       </c>
       <c r="AT15" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="AU15" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="AV15" t="s">
-        <v>192</v>
+        <v>109</v>
       </c>
       <c r="AW15" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="AX15" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="AY15" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
       <c r="AZ15" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="BA15" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="BB15" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="BC15" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="BD15" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="BE15" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:57">
       <c r="A16">
-        <v>126779</v>
+        <v>128200</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+      <c r="E16">
+        <v>284030</v>
+      </c>
+      <c r="F16">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" t="s">
+        <v>100</v>
+      </c>
+      <c r="J16">
+        <v>284031</v>
+      </c>
+      <c r="K16">
+        <v>886</v>
+      </c>
+      <c r="L16" t="s">
+        <v>91</v>
+      </c>
+      <c r="M16" t="s">
+        <v>97</v>
+      </c>
+      <c r="N16" t="s">
+        <v>97</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -3463,31 +3364,31 @@
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="W16" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="X16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Y16">
-        <v>60760</v>
+        <v>57208</v>
       </c>
       <c r="Z16" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA16" t="s">
         <v>113</v>
       </c>
-      <c r="AA16" t="s">
-        <v>127</v>
-      </c>
       <c r="AB16" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="AC16" t="b">
         <v>0</v>
       </c>
       <c r="AD16" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="AE16">
         <v>8</v>
@@ -3505,84 +3406,114 @@
         <v>0</v>
       </c>
       <c r="AJ16" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="AK16" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="AL16" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="AM16">
-        <v>29352</v>
+        <v>29930</v>
       </c>
       <c r="AN16" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="AO16" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="AP16">
         <v>1</v>
       </c>
       <c r="AQ16" t="s">
-        <v>185</v>
+        <v>133</v>
       </c>
       <c r="AR16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AS16">
-        <v>208896</v>
+        <v>208973</v>
       </c>
       <c r="AT16" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="AU16" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="AV16" t="s">
-        <v>192</v>
+        <v>109</v>
       </c>
       <c r="AW16" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="AX16" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="AY16" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
       <c r="AZ16" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="BA16" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="BB16" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="BC16" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="BD16" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="BE16" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:57">
       <c r="A17">
-        <v>126780</v>
+        <v>126926</v>
       </c>
       <c r="B17" t="s">
         <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+      <c r="E17">
+        <v>283366</v>
+      </c>
+      <c r="F17">
+        <v>39</v>
+      </c>
+      <c r="G17" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" t="s">
+        <v>102</v>
+      </c>
+      <c r="J17">
+        <v>283363</v>
+      </c>
+      <c r="K17">
+        <v>85</v>
+      </c>
+      <c r="L17" t="s">
+        <v>103</v>
+      </c>
+      <c r="M17" t="s">
+        <v>105</v>
+      </c>
+      <c r="N17" t="s">
+        <v>105</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -3594,34 +3525,28 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="V17" t="s">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="X17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Y17">
-        <v>60760</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="AB17" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="AC17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="AE17">
         <v>8</v>
@@ -3639,84 +3564,114 @@
         <v>0</v>
       </c>
       <c r="AJ17" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM17">
+        <v>29775</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP17">
+        <v>1</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS17">
+        <v>208942</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>137</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>138</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>140</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>141</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>142</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>144</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>146</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>148</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>149</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE17" t="s">
         <v>153</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM17">
-        <v>29353</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>171</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>179</v>
-      </c>
-      <c r="AP17">
-        <v>2</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>185</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS17">
-        <v>208896</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>188</v>
-      </c>
-      <c r="AU17" t="s">
-        <v>190</v>
-      </c>
-      <c r="AV17" t="s">
-        <v>192</v>
-      </c>
-      <c r="AW17" t="s">
-        <v>194</v>
-      </c>
-      <c r="AX17" t="s">
-        <v>196</v>
-      </c>
-      <c r="AY17" t="s">
-        <v>197</v>
-      </c>
-      <c r="AZ17" t="s">
-        <v>199</v>
-      </c>
-      <c r="BA17" t="s">
-        <v>200</v>
-      </c>
-      <c r="BB17" t="s">
-        <v>201</v>
-      </c>
-      <c r="BC17" t="s">
-        <v>202</v>
-      </c>
-      <c r="BD17" t="s">
-        <v>204</v>
-      </c>
-      <c r="BE17" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:57">
       <c r="A18">
-        <v>126781</v>
+        <v>126931</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+      <c r="E18">
+        <v>283366</v>
+      </c>
+      <c r="F18">
+        <v>39</v>
+      </c>
+      <c r="G18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" t="s">
+        <v>102</v>
+      </c>
+      <c r="J18">
+        <v>283373</v>
+      </c>
+      <c r="K18">
+        <v>146</v>
+      </c>
+      <c r="L18" t="s">
+        <v>104</v>
+      </c>
+      <c r="M18" t="s">
+        <v>106</v>
+      </c>
+      <c r="N18" t="s">
+        <v>106</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -3730,32 +3685,26 @@
       <c r="T18">
         <v>0</v>
       </c>
-      <c r="V18" t="s">
-        <v>112</v>
-      </c>
       <c r="W18" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="X18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Y18">
-        <v>60760</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="AB18" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="AC18" t="b">
         <v>0</v>
       </c>
       <c r="AD18" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="AE18">
         <v>8</v>
@@ -3773,606 +3722,70 @@
         <v>0</v>
       </c>
       <c r="AJ18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM18">
+        <v>29775</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP18">
+        <v>1</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS18">
+        <v>208942</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>137</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>138</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>140</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>141</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>142</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>144</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>146</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>148</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>149</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE18" t="s">
         <v>153</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>160</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM18">
-        <v>29354</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>172</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>180</v>
-      </c>
-      <c r="AP18">
-        <v>3</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>185</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS18">
-        <v>208896</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>188</v>
-      </c>
-      <c r="AU18" t="s">
-        <v>190</v>
-      </c>
-      <c r="AV18" t="s">
-        <v>192</v>
-      </c>
-      <c r="AW18" t="s">
-        <v>194</v>
-      </c>
-      <c r="AX18" t="s">
-        <v>196</v>
-      </c>
-      <c r="AY18" t="s">
-        <v>197</v>
-      </c>
-      <c r="AZ18" t="s">
-        <v>199</v>
-      </c>
-      <c r="BA18" t="s">
-        <v>200</v>
-      </c>
-      <c r="BB18" t="s">
-        <v>201</v>
-      </c>
-      <c r="BC18" t="s">
-        <v>202</v>
-      </c>
-      <c r="BD18" t="s">
-        <v>204</v>
-      </c>
-      <c r="BE18" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="19" spans="1:57">
-      <c r="A19">
-        <v>126782</v>
-      </c>
-      <c r="B19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" t="s">
-        <v>93</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="b">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="V19" t="s">
-        <v>112</v>
-      </c>
-      <c r="W19" t="s">
-        <v>102</v>
-      </c>
-      <c r="X19" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y19">
-        <v>60760</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>152</v>
-      </c>
-      <c r="AE19">
-        <v>8</v>
-      </c>
-      <c r="AF19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>153</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>161</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM19">
-        <v>29354</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>172</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>180</v>
-      </c>
-      <c r="AP19">
-        <v>3</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>185</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS19">
-        <v>208896</v>
-      </c>
-      <c r="AT19" t="s">
-        <v>188</v>
-      </c>
-      <c r="AU19" t="s">
-        <v>190</v>
-      </c>
-      <c r="AV19" t="s">
-        <v>192</v>
-      </c>
-      <c r="AW19" t="s">
-        <v>194</v>
-      </c>
-      <c r="AX19" t="s">
-        <v>196</v>
-      </c>
-      <c r="AY19" t="s">
-        <v>197</v>
-      </c>
-      <c r="AZ19" t="s">
-        <v>199</v>
-      </c>
-      <c r="BA19" t="s">
-        <v>200</v>
-      </c>
-      <c r="BB19" t="s">
-        <v>201</v>
-      </c>
-      <c r="BC19" t="s">
-        <v>202</v>
-      </c>
-      <c r="BD19" t="s">
-        <v>204</v>
-      </c>
-      <c r="BE19" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="20" spans="1:57">
-      <c r="A20">
-        <v>126783</v>
-      </c>
-      <c r="B20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" t="s">
-        <v>93</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="b">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-      <c r="V20" t="s">
-        <v>112</v>
-      </c>
-      <c r="W20" t="s">
-        <v>102</v>
-      </c>
-      <c r="X20" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y20">
-        <v>60760</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC20" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>152</v>
-      </c>
-      <c r="AE20">
-        <v>8</v>
-      </c>
-      <c r="AF20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>153</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>162</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM20">
-        <v>29355</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>173</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>181</v>
-      </c>
-      <c r="AP20">
-        <v>4</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>185</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS20">
-        <v>208896</v>
-      </c>
-      <c r="AT20" t="s">
-        <v>188</v>
-      </c>
-      <c r="AU20" t="s">
-        <v>190</v>
-      </c>
-      <c r="AV20" t="s">
-        <v>192</v>
-      </c>
-      <c r="AW20" t="s">
-        <v>194</v>
-      </c>
-      <c r="AX20" t="s">
-        <v>196</v>
-      </c>
-      <c r="AY20" t="s">
-        <v>197</v>
-      </c>
-      <c r="AZ20" t="s">
-        <v>199</v>
-      </c>
-      <c r="BA20" t="s">
-        <v>200</v>
-      </c>
-      <c r="BB20" t="s">
-        <v>201</v>
-      </c>
-      <c r="BC20" t="s">
-        <v>202</v>
-      </c>
-      <c r="BD20" t="s">
-        <v>204</v>
-      </c>
-      <c r="BE20" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="21" spans="1:57">
-      <c r="A21">
-        <v>126784</v>
-      </c>
-      <c r="B21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" t="s">
-        <v>93</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="b">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>1</v>
-      </c>
-      <c r="V21" t="s">
-        <v>112</v>
-      </c>
-      <c r="W21" t="s">
-        <v>102</v>
-      </c>
-      <c r="X21" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y21">
-        <v>60760</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>152</v>
-      </c>
-      <c r="AE21">
-        <v>8</v>
-      </c>
-      <c r="AF21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <v>0</v>
-      </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>153</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>163</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM21">
-        <v>29356</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>174</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>182</v>
-      </c>
-      <c r="AP21">
-        <v>5</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>185</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS21">
-        <v>208896</v>
-      </c>
-      <c r="AT21" t="s">
-        <v>188</v>
-      </c>
-      <c r="AU21" t="s">
-        <v>190</v>
-      </c>
-      <c r="AV21" t="s">
-        <v>192</v>
-      </c>
-      <c r="AW21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AX21" t="s">
-        <v>196</v>
-      </c>
-      <c r="AY21" t="s">
-        <v>197</v>
-      </c>
-      <c r="AZ21" t="s">
-        <v>199</v>
-      </c>
-      <c r="BA21" t="s">
-        <v>200</v>
-      </c>
-      <c r="BB21" t="s">
-        <v>201</v>
-      </c>
-      <c r="BC21" t="s">
-        <v>202</v>
-      </c>
-      <c r="BD21" t="s">
-        <v>204</v>
-      </c>
-      <c r="BE21" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="22" spans="1:57">
-      <c r="A22">
-        <v>126785</v>
-      </c>
-      <c r="B22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" t="s">
-        <v>93</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="b">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>1</v>
-      </c>
-      <c r="V22" t="s">
-        <v>112</v>
-      </c>
-      <c r="W22" t="s">
-        <v>102</v>
-      </c>
-      <c r="X22" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y22">
-        <v>60760</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>152</v>
-      </c>
-      <c r="AE22">
-        <v>8</v>
-      </c>
-      <c r="AF22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH22">
-        <v>0</v>
-      </c>
-      <c r="AI22">
-        <v>0</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>153</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>164</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM22">
-        <v>29357</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>175</v>
-      </c>
-      <c r="AO22" t="s">
-        <v>183</v>
-      </c>
-      <c r="AP22">
-        <v>6</v>
-      </c>
-      <c r="AQ22" t="s">
-        <v>185</v>
-      </c>
-      <c r="AR22" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS22">
-        <v>208896</v>
-      </c>
-      <c r="AT22" t="s">
-        <v>188</v>
-      </c>
-      <c r="AU22" t="s">
-        <v>190</v>
-      </c>
-      <c r="AV22" t="s">
-        <v>192</v>
-      </c>
-      <c r="AW22" t="s">
-        <v>194</v>
-      </c>
-      <c r="AX22" t="s">
-        <v>196</v>
-      </c>
-      <c r="AY22" t="s">
-        <v>197</v>
-      </c>
-      <c r="AZ22" t="s">
-        <v>199</v>
-      </c>
-      <c r="BA22" t="s">
-        <v>200</v>
-      </c>
-      <c r="BB22" t="s">
-        <v>201</v>
-      </c>
-      <c r="BC22" t="s">
-        <v>202</v>
-      </c>
-      <c r="BD22" t="s">
-        <v>204</v>
-      </c>
-      <c r="BE22" t="s">
-        <v>206</v>
       </c>
     </row>
   </sheetData>
